--- a/Article_files/Supplementary data/Table S2.xlsx
+++ b/Article_files/Supplementary data/Table S2.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="11">
   <si>
     <t xml:space="preserve">Table S2: The mean genetic value and the standard deviation of the breeding population for each parental selection method over 250 experiments.</t>
   </si>
@@ -41,9 +41,6 @@
   </si>
   <si>
     <t xml:space="preserve">Population Merit Method (c = 20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSC Method (d = -0.15)</t>
   </si>
   <si>
     <t xml:space="preserve">MVT Method</t>
@@ -417,8 +414,8 @@
   </sheetPr>
   <dimension ref="A1:O30"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L2" activeCellId="0" sqref="L2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I36" activeCellId="0" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -474,54 +471,44 @@
         <v>7</v>
       </c>
       <c r="M2" s="3"/>
-      <c r="N2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4"/>
       <c r="B3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>10</v>
-      </c>
       <c r="D3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>10</v>
-      </c>
       <c r="F3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="5" t="s">
-        <v>10</v>
-      </c>
       <c r="H3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="5" t="s">
-        <v>10</v>
-      </c>
       <c r="J3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="5" t="s">
-        <v>10</v>
-      </c>
       <c r="L3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M3" s="5" t="s">
         <v>9</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -564,12 +551,6 @@
       <c r="M4" s="10" t="n">
         <v>0.09</v>
       </c>
-      <c r="N4" s="9" t="n">
-        <v>0.07</v>
-      </c>
-      <c r="O4" s="10" t="n">
-        <v>0.09</v>
-      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="11" t="n">
@@ -606,15 +587,9 @@
         <v>0.08</v>
       </c>
       <c r="L5" s="12" t="n">
-        <v>0.21</v>
+        <v>0.19</v>
       </c>
       <c r="M5" s="13" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="N5" s="12" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="O5" s="13" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -653,15 +628,9 @@
         <v>0.08</v>
       </c>
       <c r="L6" s="9" t="n">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="M6" s="10" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="N6" s="9" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="O6" s="10" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -700,15 +669,9 @@
         <v>0.08</v>
       </c>
       <c r="L7" s="12" t="n">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="M7" s="13" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="N7" s="12" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="O7" s="13" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -747,15 +710,9 @@
         <v>0.08</v>
       </c>
       <c r="L8" s="9" t="n">
-        <v>0.41</v>
+        <v>0.42</v>
       </c>
       <c r="M8" s="10" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="N8" s="9" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="O8" s="10" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -794,15 +751,9 @@
         <v>0.08</v>
       </c>
       <c r="L9" s="12" t="n">
-        <v>0.44</v>
+        <v>0.42</v>
       </c>
       <c r="M9" s="13" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="N9" s="12" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="O9" s="13" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -841,15 +792,9 @@
         <v>0.08</v>
       </c>
       <c r="L10" s="9" t="n">
-        <v>0.47</v>
+        <v>0.45</v>
       </c>
       <c r="M10" s="10" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="N10" s="9" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="O10" s="10" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -888,15 +833,9 @@
         <v>0.08</v>
       </c>
       <c r="L11" s="12" t="n">
-        <v>0.48</v>
+        <v>0.47</v>
       </c>
       <c r="M11" s="13" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="N11" s="12" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="O11" s="13" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -935,15 +874,9 @@
         <v>0.08</v>
       </c>
       <c r="L12" s="9" t="n">
-        <v>0.5</v>
+        <v>0.49</v>
       </c>
       <c r="M12" s="10" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="N12" s="9" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="O12" s="10" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -982,15 +915,9 @@
         <v>0.08</v>
       </c>
       <c r="L13" s="12" t="n">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="M13" s="13" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="N13" s="12" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="O13" s="13" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -1029,15 +956,9 @@
         <v>0.08</v>
       </c>
       <c r="L14" s="9" t="n">
-        <v>0.52</v>
+        <v>0.51</v>
       </c>
       <c r="M14" s="10" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="N14" s="9" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="O14" s="10" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -1079,12 +1000,6 @@
         <v>0.52</v>
       </c>
       <c r="M15" s="13" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="N15" s="12" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="O15" s="13" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -1126,12 +1041,6 @@
         <v>0.53</v>
       </c>
       <c r="M16" s="10" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="N16" s="9" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="O16" s="10" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -1173,12 +1082,6 @@
         <v>0.53</v>
       </c>
       <c r="M17" s="13" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="N17" s="12" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="O17" s="13" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -1217,15 +1120,9 @@
         <v>0.08</v>
       </c>
       <c r="L18" s="9" t="n">
-        <v>0.53</v>
+        <v>0.54</v>
       </c>
       <c r="M18" s="10" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="N18" s="9" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="O18" s="10" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -1264,15 +1161,9 @@
         <v>0.08</v>
       </c>
       <c r="L19" s="12" t="n">
-        <v>0.53</v>
+        <v>0.54</v>
       </c>
       <c r="M19" s="13" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="N19" s="12" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="O19" s="13" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -1311,15 +1202,9 @@
         <v>0.08</v>
       </c>
       <c r="L20" s="9" t="n">
-        <v>0.54</v>
+        <v>0.55</v>
       </c>
       <c r="M20" s="10" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="N20" s="9" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="O20" s="10" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -1358,15 +1243,9 @@
         <v>0.08</v>
       </c>
       <c r="L21" s="12" t="n">
-        <v>0.54</v>
+        <v>0.55</v>
       </c>
       <c r="M21" s="13" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="N21" s="12" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="O21" s="13" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -1405,15 +1284,9 @@
         <v>0.08</v>
       </c>
       <c r="L22" s="9" t="n">
-        <v>0.54</v>
+        <v>0.55</v>
       </c>
       <c r="M22" s="10" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="N22" s="9" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="O22" s="10" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -1452,15 +1325,9 @@
         <v>0.08</v>
       </c>
       <c r="L23" s="12" t="n">
-        <v>0.54</v>
+        <v>0.55</v>
       </c>
       <c r="M23" s="13" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="N23" s="12" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="O23" s="13" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -1499,15 +1366,9 @@
         <v>0.08</v>
       </c>
       <c r="L24" s="9" t="n">
-        <v>0.54</v>
+        <v>0.56</v>
       </c>
       <c r="M24" s="10" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="N24" s="9" t="n">
-        <v>0.56</v>
-      </c>
-      <c r="O24" s="10" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -1546,15 +1407,9 @@
         <v>0.08</v>
       </c>
       <c r="L25" s="12" t="n">
-        <v>0.54</v>
+        <v>0.56</v>
       </c>
       <c r="M25" s="13" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="N25" s="12" t="n">
-        <v>0.56</v>
-      </c>
-      <c r="O25" s="13" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -1593,15 +1448,9 @@
         <v>0.08</v>
       </c>
       <c r="L26" s="9" t="n">
-        <v>0.54</v>
+        <v>0.56</v>
       </c>
       <c r="M26" s="10" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="N26" s="9" t="n">
-        <v>0.56</v>
-      </c>
-      <c r="O26" s="10" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -1640,15 +1489,9 @@
         <v>0.08</v>
       </c>
       <c r="L27" s="12" t="n">
-        <v>0.54</v>
+        <v>0.56</v>
       </c>
       <c r="M27" s="13" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="N27" s="12" t="n">
-        <v>0.56</v>
-      </c>
-      <c r="O27" s="13" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -1687,15 +1530,9 @@
         <v>0.08</v>
       </c>
       <c r="L28" s="9" t="n">
-        <v>0.54</v>
+        <v>0.56</v>
       </c>
       <c r="M28" s="10" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="N28" s="9" t="n">
-        <v>0.56</v>
-      </c>
-      <c r="O28" s="10" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -1733,22 +1570,16 @@
       <c r="K29" s="18" t="n">
         <v>0.08</v>
       </c>
-      <c r="L29" s="12" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="M29" s="13" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="N29" s="17" t="n">
+      <c r="L29" s="17" t="n">
         <v>0.56</v>
       </c>
-      <c r="O29" s="18" t="n">
+      <c r="M29" s="18" t="n">
         <v>0.08</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B30" s="19"/>
       <c r="C30" s="19"/>
@@ -1762,20 +1593,17 @@
       <c r="K30" s="19"/>
       <c r="L30" s="19"/>
       <c r="M30" s="19"/>
-      <c r="N30" s="19"/>
-      <c r="O30" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A1:O1"/>
+  <mergeCells count="8">
+    <mergeCell ref="A1:M1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="A30:O30"/>
+    <mergeCell ref="A30:M30"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
